--- a/output/fit_clients/fit_round_80.xlsx
+++ b/output/fit_clients/fit_round_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9537791219.92206</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00388243665260573</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.37790207138605</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.904135177347165</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.707494069278944</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.904135177347165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5978295430.344243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005069876435791232</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.358395702641071</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9094736012679867</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.358395702641071</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5504215374.074108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003771355186296729</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.704270093710824</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9553986747626441</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.704270093710824</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3575198108.926689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003865456566662391</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.504811400152393</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8509080243550011</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.504811400152393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5438395094.066206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002861469302220257</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8529094901018397</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.269149982345913</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.092474450597914</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.269149982345913</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7816911491.94144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009104656147062222</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.413344670207</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9231827812443263</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.413344670207</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7544341446.303703</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002375036240341973</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.125416767093193</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.970436122284101</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.125416767093193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4813401021.080245</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003441093502639016</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.71192863812009</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9055853500450113</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.71192863812009</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3093944269.083984</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004623585509086505</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.480815581799434</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9522852346827804</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.480815581799434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3833808649.849006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001276809353727651</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.329183776943967</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.794648903964706</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.329183776943967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8593521652.899363</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002075095037597338</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.752433520308702</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9900707029778181</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.752433520308702</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4469781946.353444</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004688698149374331</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.412715752215298</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04202420651586</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.412715752215298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5892646062.883734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002770491168570177</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8492994221406645</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.83474854408811</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.105144253114194</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.83474854408811</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6296002919.432293</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004151779545861409</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.21312224545289</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.007787656634348</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.21312224545289</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6168937821.403654</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004495417897182307</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.912884445563651</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9296610042673702</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.912884445563651</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6308950791.647322</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002948063074475979</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.871750916754966</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9585667965584056</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.871750916754966</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5297287535.94727</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009049784769093584</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.904707386315007</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.94641740639603</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.904707386315007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4507811031.308579</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002174801293998497</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.587625214167634</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9253248550004455</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.587625214167634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6128862287.315087</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009150568656898966</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.012846343709902</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.846604174546298</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.012846343709902</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6432600673.305678</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005083463982065524</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8843659429196415</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.747346378594036</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.102976704083444</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.747346378594036</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5843281233.289607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00554787221422216</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.48785213623833</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8051702731819151</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.48785213623833</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5922300786.132902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001779949551995809</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.211938554449261</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8754276777015089</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.211938554449261</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5235509087.245518</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003746160462448018</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.854061864115435</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.002678519305984</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.854061864115435</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7084281197.773969</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00325375445786379</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.135995203210368</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9585020017097489</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.135995203210368</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5354756773.524253</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001363487515023416</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8229884519957438</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.159972331608748</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.000029726982989</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.159972331608748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7164766696.345509</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003315630995692468</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.605569165901165</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9455679435289359</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.605569165901165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7238265648.589363</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004408860051334184</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.87068589064453</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9296610042673702</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.87068589064453</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>8085515604.086505</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001126835788895194</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.949108489923467</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9973564140981817</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.949108489923467</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6303851667.817432</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003159569881539253</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>17</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.380058293015331</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8965207207327716</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.380058293015331</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6747927488.920807</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003319413456088463</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.457348788330158</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9644895006660211</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.457348788330158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3723711317.047464</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.00115987686383566</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.731447206633602</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9277298053354626</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.731447206633602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6154627346.814456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002326532946519454</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.04660304718777</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8638977653449782</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.04660304718777</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6999669020.781347</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005105438308200537</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6957955215734075</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.728616554700794</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8269954675868328</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.728616554700794</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6992111064.514229</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001701823759024747</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.654088806481691</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.939922517814466</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.654088806481691</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6124504603.026198</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003649058005964118</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.656773279244094</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.4330127018922193</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.656773279244094</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4217242445.434107</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004391302437724834</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.557405464003074</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.012384125845943</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.557405464003074</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3294618486.71824</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003717770418964364</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.499696226595093</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.916184369566554</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.499696226595093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4616707912.302835</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002172587891017162</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.038379068915115</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8784600147508097</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.038379068915115</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5386884977.862424</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003405176294483061</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.700222266927469</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.985937262273073</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.700222266927469</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5970610838.771707</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00133560363870721</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.096644309155487</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9518938339431278</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.096644309155487</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5123763004.26073</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005536640171762297</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.479300645436428</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9880061442201443</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.479300645436428</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4711670879.940729</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003095833724688</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.701163865559058</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9264610749038714</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.701163865559058</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5550974204.549656</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001491250506143149</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>21</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1091586800210245</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.396792685192971</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.2467738162573616</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.396792685192971</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4167580474.549107</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001375530887217758</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.029912170665431</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9739380063719255</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.029912170665431</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7313183356.139954</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004765706465840846</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8085315857367382</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.535035702861577</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9910130565506882</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.535035702861577</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8323588359.632293</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002726445442765401</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.577324634980452</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9115116229284461</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.577324634980452</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8212126818.735594</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003671518432610757</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.264854028100436</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9693514488581326</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.264854028100436</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4115360090.164154</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004761023387932077</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.460449643985644</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8705361902766838</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.460449643985644</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8466318849.318829</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003614329307766249</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.647774258413222</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.037379458547718</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.647774258413222</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4947916129.212571</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005205565425783587</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>19</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.451825828263377</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9557236570533657</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.451825828263377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8534307228.987921</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001579891888114953</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.737335232405933</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.592795420548604</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.970896441321314</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.592795420548604</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7058657763.845744</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002641141531651338</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.675217939126851</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.934309455877697</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.675217939126851</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5390876532.220115</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00437450588865622</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.364381513295139</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8569949999161547</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.364381513295139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7430929851.631608</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003244471059941846</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8795833988039816</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.435447876201481</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.138527307755197</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.435447876201481</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5749884250.165933</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002159543597447127</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.617226088360075</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9150353889372927</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.617226088360075</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7956407647.744137</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003059423282466008</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.617658934357637</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8419140983307306</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.617658934357637</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6059549245.420433</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002114226712394402</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.361803608236267</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8445566016521492</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.361803608236267</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5550107194.376429</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004042877493171834</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.622494439960446</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9068832861023981</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.622494439960446</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5915500179.507717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003914972848321949</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7388118381807667</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.322435622391303</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9404515022404299</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.322435622391303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5721307019.300129</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005273866465867894</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>22</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2175398882815807</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.900369132703497</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.3705172951084631</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.900369132703497</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4400441951.979403</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003754462897416903</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.162791661614715</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8822566260194721</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.162791661614715</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6462071525.754065</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004637353666560724</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.145764136113762</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8898710488696949</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.145764136113762</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3738632281.721383</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005024869296092653</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.706559364326691</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9033277203417989</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.706559364326691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5147863090.352429</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00497762398784902</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>18</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1447535304001831</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.894951167988046</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.2623477677679615</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.894951167988046</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4798005550.196246</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.004018559211041951</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>15</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9769074400663706</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.696465369976265</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.21175204409398</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.696465369976265</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6451605016.806305</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004490915491074877</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.040600127854452</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8996890740035081</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.040600127854452</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6535960237.063067</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002827517825740686</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.250812100784512</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7297788618078502</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.250812100784512</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4121549727.452966</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001160754073080524</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.025395772648892</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9888191504600847</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.025395772648892</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7234555674.460395</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00335770139968401</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.892349773393622</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9146959506275184</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.892349773393622</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4416706236.157488</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002587064357332229</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.796987317284131</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8138071785951747</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.796987317284131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7613889189.778948</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002077361223183743</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.50682069279664</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.055008388202719</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.50682069279664</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5368703046.682399</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001414918746521632</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.933900921848452</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9748901701837317</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.933900921848452</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4945403704.177802</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003471870841427941</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.596321507976189</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8869434492087868</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.596321507976189</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5884094910.153746</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002908841463450428</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.593021653910781</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8751438476932022</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.593021653910781</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6509958629.214422</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002291490399991057</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.533587492016419</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9322546518143746</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.533587492016419</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7273543279.225337</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004898785611500808</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.115267345316717</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.000391669531894</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.115267345316717</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7311695517.17293</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003954884515068057</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9222003679911537</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.618178724050916</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.190476987911311</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.618178724050916</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8685148444.393267</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001616230191705002</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.767037099447023</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9619182022075561</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.767037099447023</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6536188572.522003</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002511488622872777</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.68127868343076</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9720947737273772</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.68127868343076</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5375226856.421303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00433041109009844</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.501062967840774</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.002306797333904</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.501062967840774</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7170900245.471324</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005674019052434639</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.945322177673206</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.407441023418237</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.164289413322107</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.407441023418237</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9942857431.822132</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002658048415944636</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>22</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.158622442876802</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8311152374807083</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.158622442876802</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5622955878.32553</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005229329533902522</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.357309934700504</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9579226381667479</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.357309934700504</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5103166507.503969</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003021648169111498</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.217236141961298</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.906133850861634</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.217236141961298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5607705982.005322</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002013634929226001</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1980623145513965</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.707988957905278</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.4092216322851289</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.707988957905278</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4527718349.884755</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001151611627931374</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.16863367313487</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9712677683359175</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.16863367313487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6640058351.885927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005624075176385498</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.514910783250406</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.851924793273577</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.514910783250406</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5587222394.201327</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004228024645762293</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.02839823214882041</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.949407844736682</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.3333621484049394</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.949407844736682</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5703916361.418509</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003682452663909066</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>14</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.676547545408939</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9608885512328804</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.676547545408939</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6118443231.618192</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003099286088060651</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.819795883917153</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8240086140289563</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.819795883917153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3844142395.255598</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004007201078473088</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.026126369473028</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.067602026347175</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.026126369473028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7750643177.80148</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001821407103826769</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.598796515363079</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9388687446320132</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.598796515363079</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5082048086.47054</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001444643273074944</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.89663148916318</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.0192666841323</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.89663148916318</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5897719201.412405</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002310135150858445</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>13</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.777888224857452</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.239329115152929</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.777888224857452</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8397879063.26924</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00294487527709146</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.234392654027759</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9132092882933679</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.234392654027759</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7256928043.246478</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.006012411827339146</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.801293436830527</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9022312067813428</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.801293436830527</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6573447398.117434</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004303875718576683</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.47686036920603</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.872593977591573</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.47686036920603</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3231002799.245932</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004947562478527135</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.492991498864409</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9105613934552431</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.492991498864409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5131375785.706209</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003376916077958683</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.591975381808029</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8318575964217166</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.591975381808029</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7591077725.786906</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00164517943903704</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6094932793189249</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.794601192182444</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9000341720148921</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.794601192182444</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_80.xlsx
+++ b/output/fit_clients/fit_round_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9537791219.92206</v>
+        <v>1582806034.530031</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00388243665260573</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20</v>
+        <v>0.09286498901471793</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04199975720441099</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>791402956.7062495</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5978295430.344243</v>
+        <v>2050076725.569342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005069876435791232</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1568638786343969</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03480212663024463</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>19</v>
+      <c r="J3" t="n">
+        <v>1025038410.512695</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5504215374.074108</v>
+        <v>3525720873.809285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003771355186296729</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
+        <v>0.1490935521895692</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03755626252827359</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1762860417.392542</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3575198108.926689</v>
+        <v>3224072435.706652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003865456566662391</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1102475161201244</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04101146858467302</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1612036272.816627</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5438395094.066206</v>
+        <v>2772294725.83593</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002861469302220257</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1482328602088667</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05654766011032714</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1386147308.85493</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7816911491.94144</v>
+        <v>2806648949.77941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009104656147062222</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.08078389599692801</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0403221668118911</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1403324458.317471</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7544341446.303703</v>
+        <v>3380700355.73986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002375036240341973</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1910385858392604</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02135451298775708</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>20</v>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1690350274.213434</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4813401021.080245</v>
+        <v>1693173301.207108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003441093502639016</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25</v>
+        <v>0.1455777360957017</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02362127823797348</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>846586719.6847209</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3093944269.083984</v>
+        <v>4851272821.978277</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004623585509086505</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2137536718185696</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03468351207524698</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2425636498.693996</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3833808649.849006</v>
+        <v>4217959719.059824</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001276809353727651</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1400320309332756</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04798958659623979</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2108979887.331258</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8593521652.899363</v>
+        <v>2423843095.16599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002075095037597338</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23</v>
+        <v>0.1800056241837534</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05177469869485301</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>29</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1211921512.765142</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4469781946.353444</v>
+        <v>4899917547.48579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004688698149374331</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>16</v>
+        <v>0.09541792113482898</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0219897901359234</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2449958782.875734</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5892646062.883734</v>
+        <v>2702746398.83603</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002770491168570177</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18</v>
+        <v>0.1573261023459609</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04301601345272942</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1351373255.307593</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6296002919.432293</v>
+        <v>1631209128.924646</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004151779545861409</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.07502347592683586</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03576555512048875</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>815604679.6247485</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6168937821.403654</v>
+        <v>2241959373.439049</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004495417897182307</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26</v>
+        <v>0.1090205847158237</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0396635002167304</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1120979740.510896</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6308950791.647322</v>
+        <v>3407266914.104313</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002948063074475979</v>
-      </c>
-      <c r="G17" t="b">
+        <v>0.1151699667274717</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03652542648935143</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>17</v>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1703633520.874366</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5297287535.94727</v>
+        <v>3789290960.867431</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009049784769093584</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>22</v>
+        <v>0.1739787062230043</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03178666249008386</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1894645453.456894</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4507811031.308579</v>
+        <v>1041890597.119165</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002174801293998497</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1276775153956939</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01654455764968746</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>520945337.8872781</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6128862287.315087</v>
+        <v>2077136051.405004</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009150568656898966</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1438334622219593</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02095849537986857</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1038568043.755709</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6432600673.305678</v>
+        <v>2241823055.253504</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005083463982065524</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>0.08829632729731501</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04550809809290754</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1120911540.326453</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5843281233.289607</v>
+        <v>2840455723.767942</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00554787221422216</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1283635420998844</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05054865756594688</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1420227932.888328</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5922300786.132902</v>
+        <v>1355782608.875408</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001779949551995809</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>15</v>
+        <v>0.1747019439655064</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04814650959967896</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>677891314.5847509</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5235509087.245518</v>
+        <v>4110187238.885813</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003746160462448018</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.1428131499537043</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02880093571425196</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2055093579.927216</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7084281197.773969</v>
+        <v>1278075198.122009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00325375445786379</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
+        <v>0.1042617465208232</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01938896253335595</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>639037598.9836807</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5354756773.524253</v>
+        <v>1199944422.110595</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001363487515023416</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09377990731394473</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03243013608944074</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>599972231.9772725</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7164766696.345509</v>
+        <v>4550783673.230464</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003315630995692468</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.146231697395889</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02653583327233105</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2275391819.314804</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7238265648.589363</v>
+        <v>3065599950.16549</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004408860051334184</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>20</v>
+        <v>0.09527632271208919</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04057206038711544</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1532799991.898974</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>8085515604.086505</v>
+        <v>4729386774.36412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001126835788895194</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.1312283424875281</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03348454447942229</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2364693353.363571</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6303851667.817432</v>
+        <v>1876426764.941522</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003159569881539253</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1329226370589553</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03417847786939839</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>938213405.8042423</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6747927488.920807</v>
+        <v>1277508548.584739</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003319413456088463</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16</v>
+        <v>0.09897578186235388</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05024503493477291</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>638754207.4261018</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3723711317.047464</v>
+        <v>1515786997.89598</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00115987686383566</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09543209916534916</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03544748443992116</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>757893570.4794965</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6154627346.814456</v>
+        <v>2545754758.579278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002326532946519454</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.1599832286023367</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04316307267571793</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1272877413.513798</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6999669020.781347</v>
+        <v>1539373217.661025</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005105438308200537</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>24</v>
+        <v>0.08318187050651595</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01799453295192514</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>769686558.1689899</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6992111064.514229</v>
+        <v>1166890274.528359</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001701823759024747</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>20</v>
+        <v>0.104833045988177</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02746786676369796</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>583445119.1616161</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6124504603.026198</v>
+        <v>2292555350.225957</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003649058005964118</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>23</v>
+        <v>0.1695960075802214</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02041315925934003</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1146277713.610171</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4217242445.434107</v>
+        <v>2858945725.254526</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004391302437724834</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08611852719208447</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03276442298612271</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>20</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1429473007.980536</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3294618486.71824</v>
+        <v>1418243048.950586</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003717770418964364</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08475063870881894</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03906074398507899</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>709121585.1927624</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4616707912.302835</v>
+        <v>1722935587.702374</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002172587891017162</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1699901255263558</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02349073453574406</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>861467830.3527266</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5386884977.862424</v>
+        <v>1419249263.467322</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003405176294483061</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1124664461129696</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04880551866514271</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>709624618.0580143</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5970610838.771707</v>
+        <v>2148034124.654307</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00133560363870721</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>23</v>
+        <v>0.1173998280519847</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03154817485023042</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1074017121.954788</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5123763004.26073</v>
+        <v>3519458146.181117</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005536640171762297</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.09623829680894294</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03047306926811017</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1759729069.204625</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4711670879.940729</v>
+        <v>3019084139.567364</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003095833724688</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1580629130437286</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02465055894797105</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1509542066.168443</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5550974204.549656</v>
+        <v>1652564227.089715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001491250506143149</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>22</v>
+        <v>0.06492021801385076</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03335432417664227</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>826282150.4722877</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4167580474.549107</v>
+        <v>2132324361.5444</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001375530887217758</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1673929200925962</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05106509124233412</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1066162184.875293</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7313183356.139954</v>
+        <v>4895497370.738465</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004765706465840846</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13</v>
+        <v>0.1732817746200565</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05903452728549106</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2447748706.077216</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8323588359.632293</v>
+        <v>3636750733.404792</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002726445442765401</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1876257521783566</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05759890007039109</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1818375345.156315</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8212126818.735594</v>
+        <v>3369301627.050501</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003671518432610757</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>14</v>
+        <v>0.09642109711993017</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.036123322802633</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1684650884.445249</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4115360090.164154</v>
+        <v>1952968487.619881</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004761023387932077</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1197285245211905</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03868384321624006</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>976484205.3000906</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8466318849.318829</v>
+        <v>3744196723.72956</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003614329307766249</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1463289965371903</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04843868184093482</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>21</v>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1872098368.657882</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4947916129.212571</v>
+        <v>1233621093.022953</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005205565425783587</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1519440798758111</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03667644430167495</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>616810592.5429858</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8534307228.987921</v>
+        <v>3937062804.240018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001579891888114953</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>19</v>
+        <v>0.1341573477501829</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05378640087649753</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1968531462.217297</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7058657763.845744</v>
+        <v>3416187093.596571</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002641141531651338</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>15</v>
+        <v>0.148149011207742</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02774953166286569</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1708093550.423013</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5390876532.220115</v>
+        <v>4693472887.435112</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00437450588865622</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21</v>
+        <v>0.1064268395765249</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0523497477641528</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2346736562.154016</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7430929851.631608</v>
+        <v>3662072262.958001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003244471059941846</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>25</v>
+        <v>0.1481326745195862</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0237130312777087</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1831036091.36998</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5749884250.165933</v>
+        <v>1875836343.238706</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002159543597447127</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1013468892706007</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04775789088606468</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>937918158.1322407</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7956407647.744137</v>
+        <v>3774487788.591319</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003059423282466008</v>
-      </c>
-      <c r="G57" t="b">
+        <v>0.1542827755520314</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02742552643038216</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>20</v>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1887243963.644207</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6059549245.420433</v>
+        <v>1259897221.785096</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002114226712394402</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>18</v>
+        <v>0.1316865036286459</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03190199263608647</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>629948663.8547351</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5550107194.376429</v>
+        <v>4228663096.483912</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004042877493171834</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1282793521545519</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03471442797388336</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2114331513.08038</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5915500179.507717</v>
+        <v>2640266502.287666</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003914972848321949</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1808303479846305</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03220328660403333</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1320133283.676212</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5721307019.300129</v>
+        <v>2255207659.444492</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005273866465867894</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>19</v>
+        <v>0.1532872473383448</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02055424288014036</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>28</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1127603880.341241</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4400441951.979403</v>
+        <v>1717801618.154195</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003754462897416903</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1296077889560373</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04129692571943156</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>858900824.7387458</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6462071525.754065</v>
+        <v>5119931151.999048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004637353666560724</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.1069092333497315</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03361719858908162</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>23</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2559965588.31549</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3738632281.721383</v>
+        <v>3857905716.743227</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005024869296092653</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1530883790430401</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02585747104793277</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1928952884.150047</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5147863090.352429</v>
+        <v>4658617536.036428</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00497762398784902</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.1591959175671571</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03148165992027147</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>29</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2329308747.219226</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4798005550.196246</v>
+        <v>5602893674.149117</v>
       </c>
       <c r="F66" t="n">
-        <v>0.004018559211041951</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.1622383942524155</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03789068061087033</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2801446896.463107</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6451605016.806305</v>
+        <v>2966615520.612264</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004490915491074877</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.09295862957939853</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03800712608600131</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1483307781.315726</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6535960237.063067</v>
+        <v>5001925708.167764</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002827517825740686</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>17</v>
+        <v>0.1332150704082868</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04375374606107583</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2500962910.502688</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4121549727.452966</v>
+        <v>2436685377.746234</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001160754073080524</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1695824827416881</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05195497747215088</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1218342750.182447</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7234555674.460395</v>
+        <v>3513280063.328354</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00335770139968401</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>22</v>
+        <v>0.08243089458669643</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04962514313846593</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1756640041.934502</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4416706236.157488</v>
+        <v>5444712480.957027</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002587064357332229</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1371061906017732</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03024833417140546</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2722356379.283666</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7613889189.778948</v>
+        <v>2164411549.902095</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002077361223183743</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>16</v>
+        <v>0.07389495054684277</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04621693084916055</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1082205694.684931</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5368703046.682399</v>
+        <v>2793633230.631629</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001414918746521632</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.09166746035359839</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04954039480049743</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1396816630.087019</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4945403704.177802</v>
+        <v>3163449979.277627</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003471870841427941</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1166758161717417</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02330349425254261</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1581725040.786875</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5884094910.153746</v>
+        <v>1841734644.388631</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002908841463450428</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.1665710068821215</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02562095305368857</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>920867301.095143</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6509958629.214422</v>
+        <v>3878620091.401805</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002291490399991057</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.09044689711022426</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02774950382875801</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
-        <v>16</v>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1939310025.239208</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7273543279.225337</v>
+        <v>2209193825.67329</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004898785611500808</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1124555747480063</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02312831540072409</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1104597005.19175</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7311695517.17293</v>
+        <v>4488617163.607632</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003954884515068057</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>18</v>
+        <v>0.09595867399920327</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05215779917078704</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2244308512.458184</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8685148444.393267</v>
+        <v>1380748695.907682</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001616230191705002</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1072942666826929</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02784731576531246</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>690374361.2146082</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6536188572.522003</v>
+        <v>4842469711.901351</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002511488622872777</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.08664040021024683</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03257524073010505</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2421234897.231163</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5375226856.421303</v>
+        <v>4780133355.496964</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00433041109009844</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1089076279950629</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02141065873663145</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2390066669.805734</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7170900245.471324</v>
+        <v>3699928942.52534</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005674019052434639</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.1508805658752158</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01985527706123793</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>15</v>
+      <c r="I82" t="n">
+        <v>29</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1849964527.631542</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9942857431.822132</v>
+        <v>1949008313.723887</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002658048415944636</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1491529990082608</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03768478521694916</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>974504135.7605448</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5622955878.32553</v>
+        <v>2288568086.641656</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005229329533902522</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.09369258583695524</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04047565116987897</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1144284005.974385</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5103166507.503969</v>
+        <v>2620457730.596891</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003021648169111498</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1623052174509413</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05668065147809957</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1310228883.451642</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5607705982.005322</v>
+        <v>2088829771.963736</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002013634929226001</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1203788487423668</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02270326892744376</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1044414925.886786</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4527718349.884755</v>
+        <v>1059031982.07047</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001151611627931374</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1434373374700765</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03173529232412534</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>529516010.3939926</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6640058351.885927</v>
+        <v>3500925959.1675</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005624075176385498</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1666396616581156</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02452670691593953</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1750463059.421213</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5587222394.201327</v>
+        <v>2947790398.023968</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004228024645762293</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>17</v>
+        <v>0.1536051078928445</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03740323593525163</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1473895240.859114</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5703916361.418509</v>
+        <v>2021344661.482553</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003682452663909066</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.0894379440834053</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05234654157628078</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1010672404.809348</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6118443231.618192</v>
+        <v>1933395873.687149</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003099286088060651</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>24</v>
+        <v>0.1352678764572608</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04996815824315894</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>966697917.920141</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3844142395.255598</v>
+        <v>1819522835.663715</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004007201078473088</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09801040199478155</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03820781012329254</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>909761350.2842796</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7750643177.80148</v>
+        <v>3303498538.743979</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001821407103826769</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>26</v>
+        <v>0.1118573309655801</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04330404007268577</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1651749314.898624</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5082048086.47054</v>
+        <v>1762249158.585977</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001444643273074944</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>26</v>
+        <v>0.148349761299732</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03140786881808704</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>881124546.6558791</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5897719201.412405</v>
+        <v>3022970067.673117</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002310135150858445</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>20</v>
+        <v>0.08463722739717003</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04060813208593554</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>18</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1511485031.816492</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8397879063.26924</v>
+        <v>1926669314.856618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00294487527709146</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>21</v>
+        <v>0.1207135899029058</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04063906076043029</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>963334652.1522833</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7256928043.246478</v>
+        <v>4297177083.661749</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006012411827339146</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>21</v>
+        <v>0.1139723498044107</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02866170820315157</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2148588622.028288</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6573447398.117434</v>
+        <v>3818588081.708972</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004303875718576683</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>30</v>
+        <v>0.1251609584369217</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02081295716713788</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1909294080.964182</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3231002799.245932</v>
+        <v>2409568843.779887</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004947562478527135</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1147785702810815</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02719110848030585</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1204784364.949431</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5131375785.706209</v>
+        <v>3678972605.206348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003376916077958683</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1507178583019664</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02497501045300347</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1839486347.549943</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7591077725.786906</v>
+        <v>3336735571.281045</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00164517943903704</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>26</v>
+        <v>0.2104517048875041</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05427867654342962</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1668367919.145915</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_80.xlsx
+++ b/output/fit_clients/fit_round_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1582806034.530031</v>
+        <v>2183033192.520044</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09286498901471793</v>
+        <v>0.1147998879572588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04199975720441099</v>
+        <v>0.03117603863726277</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>791402956.7062495</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2050076725.569342</v>
+        <v>2180672816.684344</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1568638786343969</v>
+        <v>0.1134715199381654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03480212663024463</v>
+        <v>0.04100441447572083</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1025038410.512695</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3525720873.809285</v>
+        <v>3443205859.183867</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1490935521895692</v>
+        <v>0.1583487629362254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03755626252827359</v>
+        <v>0.03004010853627568</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1762860417.392542</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3224072435.706652</v>
+        <v>3431503949.855583</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1102475161201244</v>
+        <v>0.06979982758960018</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04101146858467302</v>
+        <v>0.03697791207630505</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1612036272.816627</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2772294725.83593</v>
+        <v>2028438087.631493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1482328602088667</v>
+        <v>0.09442410263078913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05654766011032714</v>
+        <v>0.03535877307578809</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1386147308.85493</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2806648949.77941</v>
+        <v>2744618371.142292</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08078389599692801</v>
+        <v>0.06907737642574606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0403221668118911</v>
+        <v>0.03545597381547429</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1403324458.317471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3380700355.73986</v>
+        <v>2945361695.554316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1910385858392604</v>
+        <v>0.177666242782219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02135451298775708</v>
+        <v>0.03227195941726465</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1690350274.213434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1693173301.207108</v>
+        <v>2255706861.326757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1455777360957017</v>
+        <v>0.1729386391077089</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02362127823797348</v>
+        <v>0.03492952479674333</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>846586719.6847209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4851272821.978277</v>
+        <v>5919033212.751874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2137536718185696</v>
+        <v>0.159952640881422</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03468351207524698</v>
+        <v>0.03461813843437934</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>34</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2425636498.693996</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4217959719.059824</v>
+        <v>2624616175.964162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1400320309332756</v>
+        <v>0.15789732294772</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04798958659623979</v>
+        <v>0.04169784666246493</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>33</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2108979887.331258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2423843095.16599</v>
+        <v>2580110731.774318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1800056241837534</v>
+        <v>0.1687612249768803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05177469869485301</v>
+        <v>0.03844158929006669</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1211921512.765142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4899917547.48579</v>
+        <v>3502661402.658268</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09541792113482898</v>
+        <v>0.09336417400249869</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0219897901359234</v>
+        <v>0.02375498306273812</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2449958782.875734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2702746398.83603</v>
+        <v>3238488339.388646</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1573261023459609</v>
+        <v>0.1423413344580944</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04301601345272942</v>
+        <v>0.03775813056290154</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1351373255.307593</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1631209128.924646</v>
+        <v>1187785839.490073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07502347592683586</v>
+        <v>0.0803280021859097</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03576555512048875</v>
+        <v>0.03847900947316412</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>815604679.6247485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2241959373.439049</v>
+        <v>1982259683.127261</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1090205847158237</v>
+        <v>0.07567493752900022</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0396635002167304</v>
+        <v>0.03285215686203349</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1120979740.510896</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3407266914.104313</v>
+        <v>5163864663.283394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1151699667274717</v>
+        <v>0.1303701675089425</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03652542648935143</v>
+        <v>0.05124906173141432</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1703633520.874366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3789290960.867431</v>
+        <v>3847560999.928729</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1739787062230043</v>
+        <v>0.1852345580095192</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03178666249008386</v>
+        <v>0.02716916558824328</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1894645453.456894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1041890597.119165</v>
+        <v>1248962064.988423</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1276775153956939</v>
+        <v>0.1878882737969413</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01654455764968746</v>
+        <v>0.02249886317594142</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>520945337.8872781</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2077136051.405004</v>
+        <v>2111042740.042706</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1438334622219593</v>
+        <v>0.157508292232545</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02095849537986857</v>
+        <v>0.03087469827754141</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1038568043.755709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2241823055.253504</v>
+        <v>2071203106.445031</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08829632729731501</v>
+        <v>0.062252263763688</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04550809809290754</v>
+        <v>0.0445439093682499</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1120911540.326453</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2840455723.767942</v>
+        <v>3089880475.446612</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1283635420998844</v>
+        <v>0.126880397274494</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05054865756594688</v>
+        <v>0.05173979841630236</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1420227932.888328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1355782608.875408</v>
+        <v>1106879728.52599</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1747019439655064</v>
+        <v>0.151872143798959</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04814650959967896</v>
+        <v>0.04203838482004496</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>677891314.5847509</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4110187238.885813</v>
+        <v>3987913238.406076</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1428131499537043</v>
+        <v>0.1384207536669038</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02880093571425196</v>
+        <v>0.03321052030239489</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2055093579.927216</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1278075198.122009</v>
+        <v>1160335488.456334</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1042617465208232</v>
+        <v>0.08829529141518098</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01938896253335595</v>
+        <v>0.01940022572826097</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>639037598.9836807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1199944422.110595</v>
+        <v>1125844349.127382</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09377990731394473</v>
+        <v>0.1012447889881312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03243013608944074</v>
+        <v>0.03253169706317027</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>599972231.9772725</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4550783673.230464</v>
+        <v>3482235660.887995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.146231697395889</v>
+        <v>0.1225018405730097</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02653583327233105</v>
+        <v>0.01792847737041715</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2275391819.314804</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3065599950.16549</v>
+        <v>2796076413.767253</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09527632271208919</v>
+        <v>0.1191874951020934</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04057206038711544</v>
+        <v>0.03410027146164145</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1532799991.898974</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4729386774.36412</v>
+        <v>3941812985.97952</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1312283424875281</v>
+        <v>0.1255723258190646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03348454447942229</v>
+        <v>0.03058037933926045</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>36</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2364693353.363571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1876426764.941522</v>
+        <v>1782873740.054385</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1329226370589553</v>
+        <v>0.1013245556465719</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03417847786939839</v>
+        <v>0.03930676847082393</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>938213405.8042423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1277508548.584739</v>
+        <v>1147831592.664929</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09897578186235388</v>
+        <v>0.09736074694941542</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05024503493477291</v>
+        <v>0.0525838030546571</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>638754207.4261018</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1515786997.89598</v>
+        <v>1417930537.755102</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09543209916534916</v>
+        <v>0.0959220850169251</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03544748443992116</v>
+        <v>0.02404365315656075</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>757893570.4794965</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2545754758.579278</v>
+        <v>2664971276.368839</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1599832286023367</v>
+        <v>0.1643237637437987</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04316307267571793</v>
+        <v>0.04941731363703505</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1272877413.513798</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1539373217.661025</v>
+        <v>1260407425.216653</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08318187050651595</v>
+        <v>0.1177212937593076</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01799453295192514</v>
+        <v>0.02373001714973112</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>769686558.1689899</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1166890274.528359</v>
+        <v>1206095717.596434</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104833045988177</v>
+        <v>0.1045314620060511</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02746786676369796</v>
+        <v>0.04325031232109873</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>583445119.1616161</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2292555350.225957</v>
+        <v>2009259652.69529</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1695960075802214</v>
+        <v>0.1574929931192705</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02041315925934003</v>
+        <v>0.02622143170040849</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1146277713.610171</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2858945725.254526</v>
+        <v>2272606755.821927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08611852719208447</v>
+        <v>0.09619530450019219</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03276442298612271</v>
+        <v>0.02915074071795811</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1429473007.980536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1418243048.950586</v>
+        <v>2060552605.778783</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08475063870881894</v>
+        <v>0.1214052478682631</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03906074398507899</v>
+        <v>0.03437363827161911</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>709121585.1927624</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1722935587.702374</v>
+        <v>1430197186.467513</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1699901255263558</v>
+        <v>0.1570263484283543</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02349073453574406</v>
+        <v>0.02173946811176255</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>861467830.3527266</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1419249263.467322</v>
+        <v>1289988465.277466</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1124664461129696</v>
+        <v>0.1565431275234864</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04880551866514271</v>
+        <v>0.05450907751942986</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>709624618.0580143</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2148034124.654307</v>
+        <v>1877536929.210778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1173998280519847</v>
+        <v>0.1551701427415544</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03154817485023042</v>
+        <v>0.03556009379471081</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>21</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1074017121.954788</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3519458146.181117</v>
+        <v>3444306473.880064</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09623829680894294</v>
+        <v>0.1236179342113755</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03047306926811017</v>
+        <v>0.03599084177647196</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1759729069.204625</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3019084139.567364</v>
+        <v>2862062782.317377</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1580629130437286</v>
+        <v>0.1696169473256825</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02465055894797105</v>
+        <v>0.0192505252377277</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1509542066.168443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1652564227.089715</v>
+        <v>1942488347.930615</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06492021801385076</v>
+        <v>0.08557061902199203</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03335432417664227</v>
+        <v>0.02897039707164461</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>826282150.4722877</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2132324361.5444</v>
+        <v>1791766024.998423</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1673929200925962</v>
+        <v>0.1674449750283818</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05106509124233412</v>
+        <v>0.03759244317445031</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1066162184.875293</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4895497370.738465</v>
+        <v>3748985029.794482</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1732817746200565</v>
+        <v>0.151715889416615</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05903452728549106</v>
+        <v>0.04163434758770389</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>29</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2447748706.077216</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3636750733.404792</v>
+        <v>4717719223.999858</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1876257521783566</v>
+        <v>0.1223358305053707</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05759890007039109</v>
+        <v>0.04251485578089379</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>21</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1818375345.156315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3369301627.050501</v>
+        <v>4717605571.804253</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09642109711993017</v>
+        <v>0.09283017433397435</v>
       </c>
       <c r="G48" t="n">
-        <v>0.036123322802633</v>
+        <v>0.02984025431496351</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1684650884.445249</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1952968487.619881</v>
+        <v>1689015993.591952</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1197285245211905</v>
+        <v>0.1460317605068682</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03868384321624006</v>
+        <v>0.04389655497012147</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>976484205.3000906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3744196723.72956</v>
+        <v>2644249922.434894</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1463289965371903</v>
+        <v>0.1277831087891645</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04843868184093482</v>
+        <v>0.03420307373229912</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1872098368.657882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1233621093.022953</v>
+        <v>1270332054.051234</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1519440798758111</v>
+        <v>0.1460269048005184</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03667644430167495</v>
+        <v>0.04423091417787991</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>616810592.5429858</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3937062804.240018</v>
+        <v>3982524200.675839</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1341573477501829</v>
+        <v>0.1315590981257054</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05378640087649753</v>
+        <v>0.04666700466143856</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>33</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1968531462.217297</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3416187093.596571</v>
+        <v>2454153623.285218</v>
       </c>
       <c r="F53" t="n">
-        <v>0.148149011207742</v>
+        <v>0.1512839592932086</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02774953166286569</v>
+        <v>0.03085653100022314</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>23</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1708093550.423013</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4693472887.435112</v>
+        <v>3004135901.376928</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1064268395765249</v>
+        <v>0.1581636024896504</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0523497477641528</v>
+        <v>0.03340063102009973</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2346736562.154016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3662072262.958001</v>
+        <v>4861357679.35746</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1481326745195862</v>
+        <v>0.1422068481838758</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0237130312777087</v>
+        <v>0.0244189586713481</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1831036091.36998</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1875836343.238706</v>
+        <v>1297167936.771053</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1013468892706007</v>
+        <v>0.1608101111802978</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04775789088606468</v>
+        <v>0.05780563553214679</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>937918158.1322407</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3774487788.591319</v>
+        <v>3045235408.509305</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1542827755520314</v>
+        <v>0.1773272064136729</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02742552643038216</v>
+        <v>0.02728384985161434</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>25</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1887243963.644207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1259897221.785096</v>
+        <v>1594855661.747021</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1316865036286459</v>
+        <v>0.1458020204552516</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03190199263608647</v>
+        <v>0.0282593996063357</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>629948663.8547351</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4228663096.483912</v>
+        <v>5359662384.462217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1282793521545519</v>
+        <v>0.1113515898930275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03471442797388336</v>
+        <v>0.04957501588191038</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2114331513.08038</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2640266502.287666</v>
+        <v>3346079571.869503</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1808303479846305</v>
+        <v>0.1623776011443649</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03220328660403333</v>
+        <v>0.02755269961702558</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1320133283.676212</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2255207659.444492</v>
+        <v>3390862642.615474</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1532872473383448</v>
+        <v>0.1284944731372953</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02055424288014036</v>
+        <v>0.02515092281387719</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1127603880.341241</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1717801618.154195</v>
+        <v>2028954309.636665</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1296077889560373</v>
+        <v>0.1354366423028672</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04129692571943156</v>
+        <v>0.0464112025901884</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>858900824.7387458</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5119931151.999048</v>
+        <v>4176223204.975048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1069092333497315</v>
+        <v>0.103804920957627</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03361719858908162</v>
+        <v>0.03965761190813007</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2559965588.31549</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3857905716.743227</v>
+        <v>3423645635.755348</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1530883790430401</v>
+        <v>0.1920087506669066</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02585747104793277</v>
+        <v>0.03325551789521044</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>25</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1928952884.150047</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4658617536.036428</v>
+        <v>4944118867.791009</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1591959175671571</v>
+        <v>0.1491677702905697</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03148165992027147</v>
+        <v>0.02189280704783332</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>29</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2329308747.219226</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5602893674.149117</v>
+        <v>5380469028.485553</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1622383942524155</v>
+        <v>0.1380876202140061</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03789068061087033</v>
+        <v>0.04506844737775949</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>23</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2801446896.463107</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2966615520.612264</v>
+        <v>2910821960.037807</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09295862957939853</v>
+        <v>0.0643414586566276</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03800712608600131</v>
+        <v>0.05129197203549584</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>26</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1483307781.315726</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5001925708.167764</v>
+        <v>4363206376.751854</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1332150704082868</v>
+        <v>0.1031896326993122</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04375374606107583</v>
+        <v>0.03913305204032125</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>25</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2500962910.502688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2436685377.746234</v>
+        <v>1954411290.961365</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1695824827416881</v>
+        <v>0.1586653537475451</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05195497747215088</v>
+        <v>0.04922201734139765</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1218342750.182447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3513280063.328354</v>
+        <v>3261304471.626525</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08243089458669643</v>
+        <v>0.0770127542248203</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04962514313846593</v>
+        <v>0.03880739977552783</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1756640041.934502</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5444712480.957027</v>
+        <v>4640886568.706301</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1371061906017732</v>
+        <v>0.1355980012212248</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03024833417140546</v>
+        <v>0.02164825933223755</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2722356379.283666</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2164411549.902095</v>
+        <v>1685597906.447942</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07389495054684277</v>
+        <v>0.0759460313653863</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04621693084916055</v>
+        <v>0.03772937373099156</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1082205694.684931</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2793633230.631629</v>
+        <v>2785387750.126749</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09166746035359839</v>
+        <v>0.09301853936879052</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04954039480049743</v>
+        <v>0.05017684064802354</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>31</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1396816630.087019</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3163449979.277627</v>
+        <v>2587072787.226442</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1166758161717417</v>
+        <v>0.1193166105699454</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02330349425254261</v>
+        <v>0.02498509442173573</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>27</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1581725040.786875</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1841734644.388631</v>
+        <v>1577806960.022156</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1665710068821215</v>
+        <v>0.1088945745040681</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02562095305368857</v>
+        <v>0.03305918405622955</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>920867301.095143</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3878620091.401805</v>
+        <v>3684735274.515522</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09044689711022426</v>
+        <v>0.07884408854155012</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02774950382875801</v>
+        <v>0.02891844494491875</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1939310025.239208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2209193825.67329</v>
+        <v>2173285278.005241</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1124555747480063</v>
+        <v>0.1348218379003606</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02312831540072409</v>
+        <v>0.03048271627070617</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1104597005.19175</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4488617163.607632</v>
+        <v>4371923025.994804</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09595867399920327</v>
+        <v>0.1307521138792913</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05215779917078704</v>
+        <v>0.03847893375081776</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2244308512.458184</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1380748695.907682</v>
+        <v>1849979576.99883</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1072942666826929</v>
+        <v>0.1463189242060471</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02784731576531246</v>
+        <v>0.02816426489120055</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>690374361.2146082</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4842469711.901351</v>
+        <v>4548498067.966405</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08664040021024683</v>
+        <v>0.1018669785881895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03257524073010505</v>
+        <v>0.03521997895931051</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2421234897.231163</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4780133355.496964</v>
+        <v>4427772809.03019</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1089076279950629</v>
+        <v>0.1128108322284291</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02141065873663145</v>
+        <v>0.032937469406286</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>18</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2390066669.805734</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3699928942.52534</v>
+        <v>4649105794.29514</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1508805658752158</v>
+        <v>0.2113771360077948</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01985527706123793</v>
+        <v>0.02443904750874899</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1849964527.631542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1949008313.723887</v>
+        <v>1567285096.556752</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1491529990082608</v>
+        <v>0.1270729235050901</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03768478521694916</v>
+        <v>0.03276405849141355</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>974504135.7605448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2288568086.641656</v>
+        <v>2517064106.13247</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09369258583695524</v>
+        <v>0.07701332281704351</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04047565116987897</v>
+        <v>0.04325376820180187</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1144284005.974385</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2620457730.596891</v>
+        <v>3126498579.344612</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1623052174509413</v>
+        <v>0.1289721041115085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05668065147809957</v>
+        <v>0.04396573877468788</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1310228883.451642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2088829771.963736</v>
+        <v>2113364632.718141</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1203788487423668</v>
+        <v>0.109506668320569</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02270326892744376</v>
+        <v>0.02548207738420036</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1044414925.886786</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1059031982.07047</v>
+        <v>1159895664.118653</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1434373374700765</v>
+        <v>0.1816998952508829</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03173529232412534</v>
+        <v>0.03940061411815505</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>529516010.3939926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3500925959.1675</v>
+        <v>3106603715.355969</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1666396616581156</v>
+        <v>0.1272854480424852</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02452670691593953</v>
+        <v>0.0383068107784102</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>30</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1750463059.421213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2947790398.023968</v>
+        <v>2868160097.108645</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1536051078928445</v>
+        <v>0.1061345982899315</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03740323593525163</v>
+        <v>0.03810043189355497</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1473895240.859114</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2021344661.482553</v>
+        <v>1779413612.022023</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0894379440834053</v>
+        <v>0.1194387476237947</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05234654157628078</v>
+        <v>0.03445443448910698</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1010672404.809348</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1933395873.687149</v>
+        <v>1325585667.044975</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1352678764572608</v>
+        <v>0.1253718813020166</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04996815824315894</v>
+        <v>0.06166353681139954</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>966697917.920141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1819522835.663715</v>
+        <v>2048260430.710062</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09801040199478155</v>
+        <v>0.07694936195654381</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03820781012329254</v>
+        <v>0.03043719880797032</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>909761350.2842796</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3303498538.743979</v>
+        <v>3604733509.542495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1118573309655801</v>
+        <v>0.1190865560758493</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04330404007268577</v>
+        <v>0.0491166711403553</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>24</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1651749314.898624</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1762249158.585977</v>
+        <v>1846322991.34423</v>
       </c>
       <c r="F94" t="n">
-        <v>0.148349761299732</v>
+        <v>0.1122931436563206</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03140786881808704</v>
+        <v>0.04313964692837029</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>881124546.6558791</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3022970067.673117</v>
+        <v>2137668894.328745</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08463722739717003</v>
+        <v>0.1226472492332872</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04060813208593554</v>
+        <v>0.04973762990893012</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>18</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1511485031.816492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1926669314.856618</v>
+        <v>1982290154.155506</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1207135899029058</v>
+        <v>0.1169400511382648</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04063906076043029</v>
+        <v>0.03817092579992616</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>963334652.1522833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4297177083.661749</v>
+        <v>3960663575.282131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1139723498044107</v>
+        <v>0.1760158917270217</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02866170820315157</v>
+        <v>0.02170153728961115</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>26</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2148588622.028288</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3818588081.708972</v>
+        <v>3835868590.659556</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1251609584369217</v>
+        <v>0.08426284121223614</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02081295716713788</v>
+        <v>0.0201399027982462</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>21</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1909294080.964182</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2409568843.779887</v>
+        <v>2871892140.68499</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1147785702810815</v>
+        <v>0.09229062529883965</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02719110848030585</v>
+        <v>0.03131929879846035</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1204784364.949431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3678972605.206348</v>
+        <v>3498200374.824857</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1507178583019664</v>
+        <v>0.1341081191335051</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02497501045300347</v>
+        <v>0.02061522551570205</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1839486347.549943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3336735571.281045</v>
+        <v>2631476237.856861</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2104517048875041</v>
+        <v>0.169630000569698</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05427867654342962</v>
+        <v>0.05065709686342498</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1668367919.145915</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_80.xlsx
+++ b/output/fit_clients/fit_round_80.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2183033192.520044</v>
+        <v>2083807767.606984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147998879572588</v>
+        <v>0.06913384271678631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03117603863726277</v>
+        <v>0.03717559489914108</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2180672816.684344</v>
+        <v>2173206716.825777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1134715199381654</v>
+        <v>0.177798371906515</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04100441447572083</v>
+        <v>0.03571977622399421</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3443205859.183867</v>
+        <v>4809191624.668968</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1583487629362254</v>
+        <v>0.125917356579977</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03004010853627568</v>
+        <v>0.03702454931779959</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3431503949.855583</v>
+        <v>3620890881.803285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06979982758960018</v>
+        <v>0.07746376284680175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03697791207630505</v>
+        <v>0.03757773718601872</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2028438087.631493</v>
+        <v>2572708608.85183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09442410263078913</v>
+        <v>0.1151531918876437</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03535877307578809</v>
+        <v>0.04635968408150284</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2744618371.142292</v>
+        <v>2936987329.362893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06907737642574606</v>
+        <v>0.08663515763487178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03545597381547429</v>
+        <v>0.0432828035569605</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2945361695.554316</v>
+        <v>3481744419.033076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.177666242782219</v>
+        <v>0.1757815986964071</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03227195941726465</v>
+        <v>0.03356068849112824</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2255706861.326757</v>
+        <v>1930840118.629809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1729386391077089</v>
+        <v>0.1540878833043947</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03492952479674333</v>
+        <v>0.03544213166909828</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5919033212.751874</v>
+        <v>4887711232.892422</v>
       </c>
       <c r="F10" t="n">
-        <v>0.159952640881422</v>
+        <v>0.1542232178001768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03461813843437934</v>
+        <v>0.04333807166111693</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2624616175.964162</v>
+        <v>3852196051.418576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15789732294772</v>
+        <v>0.1319351258276528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04169784666246493</v>
+        <v>0.03068599213338621</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2580110731.774318</v>
+        <v>2463037187.752731</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1687612249768803</v>
+        <v>0.1316039700835162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03844158929006669</v>
+        <v>0.04143150461287055</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3502661402.658268</v>
+        <v>4412852169.642616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09336417400249869</v>
+        <v>0.07904811443611932</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02375498306273812</v>
+        <v>0.02073180733045143</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3238488339.388646</v>
+        <v>3262055743.66197</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1423413344580944</v>
+        <v>0.1397000144275964</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03775813056290154</v>
+        <v>0.02681376100168176</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1187785839.490073</v>
+        <v>1656236077.220104</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0803280021859097</v>
+        <v>0.0730607735984295</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03847900947316412</v>
+        <v>0.03693701163754962</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1982259683.127261</v>
+        <v>2006865615.356086</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07567493752900022</v>
+        <v>0.108323033508169</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03285215686203349</v>
+        <v>0.03735321404916127</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5163864663.283394</v>
+        <v>4438608964.911371</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303701675089425</v>
+        <v>0.1335253188987976</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05124906173141432</v>
+        <v>0.04081642189166757</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3847560999.928729</v>
+        <v>2626779418.014028</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1852345580095192</v>
+        <v>0.1207167648801304</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02716916558824328</v>
+        <v>0.02174272276574626</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1248962064.988423</v>
+        <v>1259059401.867938</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1878882737969413</v>
+        <v>0.1558321174424489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02249886317594142</v>
+        <v>0.02035596428407079</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2111042740.042706</v>
+        <v>2010253160.012882</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157508292232545</v>
+        <v>0.1424556130245534</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03087469827754141</v>
+        <v>0.02154071624328418</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2071203106.445031</v>
+        <v>2213513038.58395</v>
       </c>
       <c r="F21" t="n">
-        <v>0.062252263763688</v>
+        <v>0.1011764273728918</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0445439093682499</v>
+        <v>0.04091830486639492</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3089880475.446612</v>
+        <v>2736049188.115461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.126880397274494</v>
+        <v>0.1039198423998076</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05173979841630236</v>
+        <v>0.05068568616222134</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1106879728.52599</v>
+        <v>936799936.3208679</v>
       </c>
       <c r="F23" t="n">
-        <v>0.151872143798959</v>
+        <v>0.1284620201752404</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04203838482004496</v>
+        <v>0.04776243440834142</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3987913238.406076</v>
+        <v>3993852244.817256</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1384207536669038</v>
+        <v>0.12028291896263</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03321052030239489</v>
+        <v>0.02923587212849096</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1160335488.456334</v>
+        <v>1387757320.732753</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08829529141518098</v>
+        <v>0.1094285316535116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01940022572826097</v>
+        <v>0.02801904668697701</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1125844349.127382</v>
+        <v>970352681.5258644</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1012447889881312</v>
+        <v>0.1217172309628579</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03253169706317027</v>
+        <v>0.03319969260895057</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3482235660.887995</v>
+        <v>3079651784.50292</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1225018405730097</v>
+        <v>0.1437826891835855</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01792847737041715</v>
+        <v>0.02294945071221553</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2796076413.767253</v>
+        <v>3422159169.794347</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1191874951020934</v>
+        <v>0.1048753977414569</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03410027146164145</v>
+        <v>0.04505428793457059</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3941812985.97952</v>
+        <v>5817368435.428363</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1255723258190646</v>
+        <v>0.1320711941850711</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03058037933926045</v>
+        <v>0.0321592143794542</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1782873740.054385</v>
+        <v>1837250333.50996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1013245556465719</v>
+        <v>0.08688674992446987</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03930676847082393</v>
+        <v>0.02582295506611272</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1147831592.664929</v>
+        <v>1422620969.557866</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09736074694941542</v>
+        <v>0.07797361171516234</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0525838030546571</v>
+        <v>0.04020273149245407</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1417930537.755102</v>
+        <v>1663565228.472559</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0959220850169251</v>
+        <v>0.08122713217603737</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02404365315656075</v>
+        <v>0.03808602779653634</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2664971276.368839</v>
+        <v>2799377005.796199</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643237637437987</v>
+        <v>0.2021012745044606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04941731363703505</v>
+        <v>0.03974183938534294</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1260407425.216653</v>
+        <v>1239115430.254989</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1177212937593076</v>
+        <v>0.09608078901523857</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02373001714973112</v>
+        <v>0.02264321760909974</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1206095717.596434</v>
+        <v>821332546.7259258</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1045314620060511</v>
+        <v>0.08913348039633114</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04325031232109873</v>
+        <v>0.0299990964053094</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2009259652.69529</v>
+        <v>3148152744.01377</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1574929931192705</v>
+        <v>0.1651898224557261</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02622143170040849</v>
+        <v>0.02079042403584858</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2272606755.821927</v>
+        <v>2107687841.588619</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09619530450019219</v>
+        <v>0.09806723582171566</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02915074071795811</v>
+        <v>0.03686795103478717</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2060552605.778783</v>
+        <v>1910988720.448441</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1214052478682631</v>
+        <v>0.08089959038764548</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03437363827161911</v>
+        <v>0.02866747945753107</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1430197186.467513</v>
+        <v>1649078596.435039</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1570263484283543</v>
+        <v>0.1319915397546474</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02173946811176255</v>
+        <v>0.03221870453843437</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1289988465.277466</v>
+        <v>1799170692.073242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1565431275234864</v>
+        <v>0.1572594565906303</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05450907751942986</v>
+        <v>0.05037232374800058</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1877536929.210778</v>
+        <v>2010272581.816347</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1551701427415544</v>
+        <v>0.1612297101697266</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03556009379471081</v>
+        <v>0.03181307752593321</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3444306473.880064</v>
+        <v>3752825824.048475</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1236179342113755</v>
+        <v>0.09499187264491599</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03599084177647196</v>
+        <v>0.03110075404256432</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2862062782.317377</v>
+        <v>3026619386.744613</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1696169473256825</v>
+        <v>0.132675416968427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0192505252377277</v>
+        <v>0.02377252431734222</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1942488347.930615</v>
+        <v>1691097157.014446</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08557061902199203</v>
+        <v>0.09958690231090403</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02897039707164461</v>
+        <v>0.03573470234634433</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1791766024.998423</v>
+        <v>1579542410.821774</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1674449750283818</v>
+        <v>0.1323859007098306</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03759244317445031</v>
+        <v>0.05376275555668843</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3748985029.794482</v>
+        <v>3552261181.356917</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151715889416615</v>
+        <v>0.1092918470078471</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04163434758770389</v>
+        <v>0.04552893097193898</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4717719223.999858</v>
+        <v>3770092421.639521</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1223358305053707</v>
+        <v>0.1754517265300788</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04251485578089379</v>
+        <v>0.05292865517029897</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4717605571.804253</v>
+        <v>3432912234.022401</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09283017433397435</v>
+        <v>0.09366272815051112</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02984025431496351</v>
+        <v>0.03556781684466027</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1689015993.591952</v>
+        <v>1612679823.065528</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1460317605068682</v>
+        <v>0.1869113496918703</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04389655497012147</v>
+        <v>0.04430460717014865</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2644249922.434894</v>
+        <v>3188528032.64093</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1277831087891645</v>
+        <v>0.1443937670622486</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03420307373229912</v>
+        <v>0.04659844079787376</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1270332054.051234</v>
+        <v>1450028031.66387</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1460269048005184</v>
+        <v>0.1909232154260391</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04423091417787991</v>
+        <v>0.04363549020396659</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3982524200.675839</v>
+        <v>5171620262.03995</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1315590981257054</v>
+        <v>0.09238020804920316</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04666700466143856</v>
+        <v>0.04040398640729959</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2454153623.285218</v>
+        <v>2920810055.082353</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1512839592932086</v>
+        <v>0.1511272032784221</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03085653100022314</v>
+        <v>0.02946403780276773</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3004135901.376928</v>
+        <v>3646223237.681978</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1581636024896504</v>
+        <v>0.1375623773819771</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03340063102009973</v>
+        <v>0.03803805829978388</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4861357679.35746</v>
+        <v>4535476944.235434</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1422068481838758</v>
+        <v>0.1844705706035828</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0244189586713481</v>
+        <v>0.01994052042745704</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1297167936.771053</v>
+        <v>1844467479.435782</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1608101111802978</v>
+        <v>0.1187527486227039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05780563553214679</v>
+        <v>0.04351565115306807</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3045235408.509305</v>
+        <v>3282744465.197855</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1773272064136729</v>
+        <v>0.1776502902851911</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02728384985161434</v>
+        <v>0.02541981601038274</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1594855661.747021</v>
+        <v>1541555116.870968</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1458020204552516</v>
+        <v>0.1750687595207062</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0282593996063357</v>
+        <v>0.03276326568555793</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5359662384.462217</v>
+        <v>3796097778.181709</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113515898930275</v>
+        <v>0.08375727839951484</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04957501588191038</v>
+        <v>0.034923064544674</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3346079571.869503</v>
+        <v>3539262859.761026</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1623776011443649</v>
+        <v>0.1755207775838067</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02755269961702558</v>
+        <v>0.03272997021822038</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3390862642.615474</v>
+        <v>2602274802.288713</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1284944731372953</v>
+        <v>0.1587251535705643</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02515092281387719</v>
+        <v>0.02934096270439534</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2028954309.636665</v>
+        <v>1865087367.585337</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1354366423028672</v>
+        <v>0.1431465435159213</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0464112025901884</v>
+        <v>0.04286018488349139</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4176223204.975048</v>
+        <v>4380318622.627818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.103804920957627</v>
+        <v>0.06696102726892114</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03965761190813007</v>
+        <v>0.03605010822701653</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3423645635.755348</v>
+        <v>3533471372.906926</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1920087506669066</v>
+        <v>0.1624004057317039</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03325551789521044</v>
+        <v>0.02685154929794234</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4944118867.791009</v>
+        <v>5080828851.96001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1491677702905697</v>
+        <v>0.1329624401548839</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02189280704783332</v>
+        <v>0.02487486160717229</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5380469028.485553</v>
+        <v>4182160227.550173</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1380876202140061</v>
+        <v>0.1307464077016768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04506844737775949</v>
+        <v>0.04376322657391568</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2910821960.037807</v>
+        <v>2636127542.775775</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0643414586566276</v>
+        <v>0.08647721513216633</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05129197203549584</v>
+        <v>0.04048437399830238</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4363206376.751854</v>
+        <v>5479609519.731604</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1031896326993122</v>
+        <v>0.1263323308407312</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03913305204032125</v>
+        <v>0.04631752856690474</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1954411290.961365</v>
+        <v>1970662710.610557</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1586653537475451</v>
+        <v>0.1690283806566895</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04922201734139765</v>
+        <v>0.05488343008865456</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3261304471.626525</v>
+        <v>2790210306.587835</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0770127542248203</v>
+        <v>0.07682305236233967</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03880739977552783</v>
+        <v>0.04566446464099198</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4640886568.706301</v>
+        <v>5025660525.343544</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1355980012212248</v>
+        <v>0.1177724775471942</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02164825933223755</v>
+        <v>0.02862637608725088</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1685597906.447942</v>
+        <v>2127047322.773943</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0759460313653863</v>
+        <v>0.07072586021149393</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03772937373099156</v>
+        <v>0.03799479554545914</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2785387750.126749</v>
+        <v>2307330248.109882</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09301853936879052</v>
+        <v>0.102860886784505</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05017684064802354</v>
+        <v>0.05116938460868446</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2587072787.226442</v>
+        <v>2435343013.2843</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1193166105699454</v>
+        <v>0.1852695098881743</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02498509442173573</v>
+        <v>0.03383687521044454</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1577806960.022156</v>
+        <v>1569603572.253878</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1088945745040681</v>
+        <v>0.1158523241839045</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03305918405622955</v>
+        <v>0.03643483277855475</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3684735274.515522</v>
+        <v>4327477527.482912</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07884408854155012</v>
+        <v>0.09067493048359546</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02891844494491875</v>
+        <v>0.03179867855085243</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2173285278.005241</v>
+        <v>1425045494.285223</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1348218379003606</v>
+        <v>0.1768214202780458</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03048271627070617</v>
+        <v>0.02081195124658949</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4371923025.994804</v>
+        <v>4698536148.687533</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1307521138792913</v>
+        <v>0.1057322320904765</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03847893375081776</v>
+        <v>0.04114264603259587</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1849979576.99883</v>
+        <v>1364265497.603731</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1463189242060471</v>
+        <v>0.1765218277565589</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02816426489120055</v>
+        <v>0.02798864265719993</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4548498067.966405</v>
+        <v>5248904705.051835</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1018669785881895</v>
+        <v>0.08360755195551164</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03521997895931051</v>
+        <v>0.02666233166875711</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4427772809.03019</v>
+        <v>4861419227.624572</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1128108322284291</v>
+        <v>0.1144695452897052</v>
       </c>
       <c r="G81" t="n">
-        <v>0.032937469406286</v>
+        <v>0.02492931545854485</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4649105794.29514</v>
+        <v>5179711844.956835</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2113771360077948</v>
+        <v>0.163745082262416</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02443904750874899</v>
+        <v>0.02477510839140646</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1567285096.556752</v>
+        <v>1728369489.969383</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1270729235050901</v>
+        <v>0.1499115143794212</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03276405849141355</v>
+        <v>0.04282999572372165</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2517064106.13247</v>
+        <v>1744804739.931782</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07701332281704351</v>
+        <v>0.1205995134729515</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04325376820180187</v>
+        <v>0.03956046868389224</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3126498579.344612</v>
+        <v>3208145965.843196</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1289721041115085</v>
+        <v>0.1661951073126262</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04396573877468788</v>
+        <v>0.03481050116072956</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2113364632.718141</v>
+        <v>2224807554.336818</v>
       </c>
       <c r="F86" t="n">
-        <v>0.109506668320569</v>
+        <v>0.1067634810131386</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02548207738420036</v>
+        <v>0.01973037695129978</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1159895664.118653</v>
+        <v>1286885800.666206</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1816998952508829</v>
+        <v>0.1404733649818127</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03940061411815505</v>
+        <v>0.03472667625843798</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3106603715.355969</v>
+        <v>3390541406.443823</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1272854480424852</v>
+        <v>0.1347465113741938</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0383068107784102</v>
+        <v>0.02917872365233684</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2868160097.108645</v>
+        <v>3112353202.68797</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061345982899315</v>
+        <v>0.1166401616793214</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03810043189355497</v>
+        <v>0.02646920421153975</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1779413612.022023</v>
+        <v>1352435500.001946</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1194387476237947</v>
+        <v>0.1168496269112645</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03445443448910698</v>
+        <v>0.04390837861509111</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1325585667.044975</v>
+        <v>1305911073.039209</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1253718813020166</v>
+        <v>0.1825530389319327</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06166353681139954</v>
+        <v>0.03952267119603486</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2048260430.710062</v>
+        <v>1813879195.156413</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07694936195654381</v>
+        <v>0.1041474683485203</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03043719880797032</v>
+        <v>0.04601498861134231</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3604733509.542495</v>
+        <v>3912720672.666178</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1190865560758493</v>
+        <v>0.1005755999572464</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0491166711403553</v>
+        <v>0.05351227686977544</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1846322991.34423</v>
+        <v>1591629201.61992</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1122931436563206</v>
+        <v>0.1279634362838477</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04313964692837029</v>
+        <v>0.03676304208176721</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2137668894.328745</v>
+        <v>2637332757.966657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1226472492332872</v>
+        <v>0.1375445953623718</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04973762990893012</v>
+        <v>0.03701613648821889</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1982290154.155506</v>
+        <v>2083555864.575353</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1169400511382648</v>
+        <v>0.09893729727159579</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03817092579992616</v>
+        <v>0.03397036785499976</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3960663575.282131</v>
+        <v>4447769346.072304</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1760158917270217</v>
+        <v>0.1213376194335286</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02170153728961115</v>
+        <v>0.01957496577876942</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3835868590.659556</v>
+        <v>3259828635.494822</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08426284121223614</v>
+        <v>0.1180226078401196</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0201399027982462</v>
+        <v>0.02849041809697588</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2871892140.68499</v>
+        <v>2526308048.249786</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09229062529883965</v>
+        <v>0.1295203874006366</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03131929879846035</v>
+        <v>0.0302269011416067</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3498200374.824857</v>
+        <v>4208644062.855846</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1341081191335051</v>
+        <v>0.1393797198779517</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02061522551570205</v>
+        <v>0.0193152369252906</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2631476237.856861</v>
+        <v>2488934309.610301</v>
       </c>
       <c r="F101" t="n">
-        <v>0.169630000569698</v>
+        <v>0.1845581931050474</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05065709686342498</v>
+        <v>0.04531536835927018</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_80.xlsx
+++ b/output/fit_clients/fit_round_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2083807767.606984</v>
+        <v>1535752117.296098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06913384271678631</v>
+        <v>0.08806103221311583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03717559489914108</v>
+        <v>0.03033709378207331</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2173206716.825777</v>
+        <v>2433178741.669005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.177798371906515</v>
+        <v>0.1200672638466516</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03571977622399421</v>
+        <v>0.04378004559008893</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4809191624.668968</v>
+        <v>3347812159.686364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125917356579977</v>
+        <v>0.1049033554201453</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03702454931779959</v>
+        <v>0.03333432251843928</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79</v>
+      </c>
+      <c r="K4" t="n">
+        <v>154.0333594992406</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3620890881.803285</v>
+        <v>3986716102.25029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07746376284680175</v>
+        <v>0.06931686693112957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03757773718601872</v>
+        <v>0.03922924011536171</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2572708608.85183</v>
+        <v>2019198506.280934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1151531918876437</v>
+        <v>0.1350787662704186</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04635968408150284</v>
+        <v>0.03432590053554842</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2936987329.362893</v>
+        <v>2524716575.057794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08663515763487178</v>
+        <v>0.06424519481069169</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0432828035569605</v>
+        <v>0.04132052434883223</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3481744419.033076</v>
+        <v>3177782769.58308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1757815986964071</v>
+        <v>0.1948365000254329</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03356068849112824</v>
+        <v>0.02994042769502335</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79</v>
+      </c>
+      <c r="K8" t="n">
+        <v>136.1759475993388</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1930840118.629809</v>
+        <v>1650463838.333797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1540878833043947</v>
+        <v>0.142047049374658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03544213166909828</v>
+        <v>0.03368787658032358</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4887711232.892422</v>
+        <v>4408479868.47909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1542232178001768</v>
+        <v>0.1866956380796476</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04333807166111693</v>
+        <v>0.03541507542615549</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>74</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K10" t="n">
+        <v>199.930692353592</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3852196051.418576</v>
+        <v>3719606303.652473</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1319351258276528</v>
+        <v>0.1346556003018833</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03068599213338621</v>
+        <v>0.03345637934892218</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2463037187.752731</v>
+        <v>2281578886.339568</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1316039700835162</v>
+        <v>0.1922872846824542</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04143150461287055</v>
+        <v>0.04054836988637336</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4412852169.642616</v>
+        <v>3364151175.906242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07904811443611932</v>
+        <v>0.07057887443544683</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02073180733045143</v>
+        <v>0.02909646558180649</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>41</v>
+      </c>
+      <c r="J13" t="n">
+        <v>79</v>
+      </c>
+      <c r="K13" t="n">
+        <v>150.9323368157737</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3262055743.66197</v>
+        <v>3538659147.023788</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1397000144275964</v>
+        <v>0.167560932653588</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02681376100168176</v>
+        <v>0.04302785118276022</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="n">
+        <v>163.1770893712007</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1656236077.220104</v>
+        <v>1458091053.464444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0730607735984295</v>
+        <v>0.08921690536587047</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03693701163754962</v>
+        <v>0.03442400571502812</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2006865615.356086</v>
+        <v>2515231872.345601</v>
       </c>
       <c r="F16" t="n">
-        <v>0.108323033508169</v>
+        <v>0.1139270133014948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03735321404916127</v>
+        <v>0.04038863470986941</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4438608964.911371</v>
+        <v>4035477315.555869</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1335253188987976</v>
+        <v>0.1201520432466773</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04081642189166757</v>
+        <v>0.04724031244055979</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>38</v>
+      </c>
+      <c r="J17" t="n">
+        <v>80</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2626779418.014028</v>
+        <v>2544196819.827171</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1207167648801304</v>
+        <v>0.1630566591808185</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02174272276574626</v>
+        <v>0.03134237832559782</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>78</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1259059401.867938</v>
+        <v>1076363124.805938</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1558321174424489</v>
+        <v>0.1829129590060643</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02035596428407079</v>
+        <v>0.02192699143198363</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010253160.012882</v>
+        <v>2430333611.134163</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1424556130245534</v>
+        <v>0.1223419635960786</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02154071624328418</v>
+        <v>0.03101247745752614</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2213513038.58395</v>
+        <v>1779843395.519618</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1011764273728918</v>
+        <v>0.07541793097348547</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04091830486639492</v>
+        <v>0.03592383805536461</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2736049188.115461</v>
+        <v>3122839540.885025</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1039198423998076</v>
+        <v>0.1194535755487088</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05068568616222134</v>
+        <v>0.05261346867630919</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>936799936.3208679</v>
+        <v>949454086.4331253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1284620201752404</v>
+        <v>0.1790436592401805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04776243440834142</v>
+        <v>0.03899572954719845</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3993852244.817256</v>
+        <v>3102447016.593012</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12028291896263</v>
+        <v>0.1352863240046488</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02923587212849096</v>
+        <v>0.0362670233991</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>79</v>
+      </c>
+      <c r="K24" t="n">
+        <v>123.2761095821609</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1387757320.732753</v>
+        <v>1122471794.000523</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1094285316535116</v>
+        <v>0.07887587264264849</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02801904668697701</v>
+        <v>0.02941943819282431</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>970352681.5258644</v>
+        <v>1132478479.765912</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1217172309628579</v>
+        <v>0.09995363535451804</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03319969260895057</v>
+        <v>0.03367308671199818</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3079651784.50292</v>
+        <v>4020851385.907134</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437826891835855</v>
+        <v>0.1294837908138801</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02294945071221553</v>
+        <v>0.0244117933489101</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>79</v>
+      </c>
+      <c r="K27" t="n">
+        <v>149.6184253569082</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3422159169.794347</v>
+        <v>3240325488.577623</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1048753977414569</v>
+        <v>0.1059109012981649</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04505428793457059</v>
+        <v>0.03704110098575809</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>78</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5817368435.428363</v>
+        <v>5285935018.511887</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1320711941850711</v>
+        <v>0.09257351121170047</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0321592143794542</v>
+        <v>0.03870136839254092</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>74</v>
+      </c>
+      <c r="J29" t="n">
+        <v>80</v>
+      </c>
+      <c r="K29" t="n">
+        <v>208.3833613822823</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1837250333.50996</v>
+        <v>1989717055.849211</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08688674992446987</v>
+        <v>0.08474928802224972</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02582295506611272</v>
+        <v>0.03886108265390782</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1422620969.557866</v>
+        <v>1364335739.65116</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07797361171516234</v>
+        <v>0.09009304409185004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04020273149245407</v>
+        <v>0.0394139207268704</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1663565228.472559</v>
+        <v>1577882187.980938</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08122713217603737</v>
+        <v>0.07957446287916912</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03808602779653634</v>
+        <v>0.03441567015542609</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2799377005.796199</v>
+        <v>3068857855.320108</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2021012745044606</v>
+        <v>0.1489162144442525</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03974183938534294</v>
+        <v>0.04951191511931501</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1239115430.254989</v>
+        <v>1204614861.323182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09608078901523857</v>
+        <v>0.09576865413534723</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02264321760909974</v>
+        <v>0.02279927255782382</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>821332546.7259258</v>
+        <v>1227806152.369752</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08913348039633114</v>
+        <v>0.0796938133136695</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0299990964053094</v>
+        <v>0.03293894473683404</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3148152744.01377</v>
+        <v>3189240192.84281</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1651898224557261</v>
+        <v>0.1410728457939169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02079042403584858</v>
+        <v>0.02400129829815442</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2107687841.588619</v>
+        <v>2253283330.584648</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09806723582171566</v>
+        <v>0.1112134771300154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03686795103478717</v>
+        <v>0.03889703141083105</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1910988720.448441</v>
+        <v>1431050591.52074</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08089959038764548</v>
+        <v>0.08824876031729012</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02866747945753107</v>
+        <v>0.02795524693066858</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1649078596.435039</v>
+        <v>1726183772.339412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1319915397546474</v>
+        <v>0.1398957690302504</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03221870453843437</v>
+        <v>0.02387894644844861</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1799170692.073242</v>
+        <v>1230598493.528294</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1572594565906303</v>
+        <v>0.1475059940910205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05037232374800058</v>
+        <v>0.05491328787707812</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2010272581.816347</v>
+        <v>2000894742.506907</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1612297101697266</v>
+        <v>0.1197745966820462</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03181307752593321</v>
+        <v>0.04255977168002441</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3752825824.048475</v>
+        <v>2641458166.913475</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09499187264491599</v>
+        <v>0.1130395767040541</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03110075404256432</v>
+        <v>0.03410330516515663</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>77</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3026619386.744613</v>
+        <v>2443646310.280922</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132675416968427</v>
+        <v>0.1568328720966128</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02377252431734222</v>
+        <v>0.01983252759655613</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1691097157.014446</v>
+        <v>2294805657.81468</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09958690231090403</v>
+        <v>0.06304559237344587</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03573470234634433</v>
+        <v>0.02921842032093692</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1579542410.821774</v>
+        <v>1698987227.234848</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1323859007098306</v>
+        <v>0.1384813564663457</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05376275555668843</v>
+        <v>0.03979406570410429</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3552261181.356917</v>
+        <v>4641042568.778393</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1092918470078471</v>
+        <v>0.1313456835861969</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04552893097193898</v>
+        <v>0.04815146833976981</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>46</v>
+      </c>
+      <c r="J46" t="n">
+        <v>80</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3770092421.639521</v>
+        <v>3695065307.657437</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1754517265300788</v>
+        <v>0.1840121275270475</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05292865517029897</v>
+        <v>0.03801617380946683</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>36</v>
+      </c>
+      <c r="J47" t="n">
+        <v>79</v>
+      </c>
+      <c r="K47" t="n">
+        <v>149.7188115476458</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3432912234.022401</v>
+        <v>4202855156.259159</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09366272815051112</v>
+        <v>0.07261668860933408</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03556781684466027</v>
+        <v>0.02814510702618465</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29</v>
+      </c>
+      <c r="J48" t="n">
+        <v>80</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1612679823.065528</v>
+        <v>1839877247.643063</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1869113496918703</v>
+        <v>0.1748315516852605</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04430460717014865</v>
+        <v>0.03647387210835912</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3188528032.64093</v>
+        <v>3129192594.358233</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1443937670622486</v>
+        <v>0.1722739651838652</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04659844079787376</v>
+        <v>0.03754409091638186</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>79</v>
+      </c>
+      <c r="K50" t="n">
+        <v>132.892765555742</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1450028031.66387</v>
+        <v>1426603285.36008</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1909232154260391</v>
+        <v>0.186329845032541</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04363549020396659</v>
+        <v>0.03883967801525683</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5171620262.03995</v>
+        <v>4804515712.479445</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09238020804920316</v>
+        <v>0.09799653623857736</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04040398640729959</v>
+        <v>0.05250499739896224</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>62</v>
+      </c>
+      <c r="J52" t="n">
+        <v>80</v>
+      </c>
+      <c r="K52" t="n">
+        <v>188.3483789083469</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2920810055.082353</v>
+        <v>3576256106.654595</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1511272032784221</v>
+        <v>0.1508200839982913</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02946403780276773</v>
+        <v>0.03249758222472823</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3646223237.681978</v>
+        <v>3787712279.026256</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1375623773819771</v>
+        <v>0.1576018931085162</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03803805829978388</v>
+        <v>0.05198170429440996</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>36</v>
+      </c>
+      <c r="J54" t="n">
+        <v>80</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4535476944.235434</v>
+        <v>4785202325.917244</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1844705706035828</v>
+        <v>0.1415166776594534</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01994052042745704</v>
+        <v>0.0240902760394553</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>36</v>
+      </c>
+      <c r="J55" t="n">
+        <v>80</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1844467479.435782</v>
+        <v>1695385398.994811</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1187527486227039</v>
+        <v>0.1563879964211045</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04351565115306807</v>
+        <v>0.03878425973287296</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3282744465.197855</v>
+        <v>3447650806.715959</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1776502902851911</v>
+        <v>0.1717001852300466</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02541981601038274</v>
+        <v>0.02086585374646471</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>29</v>
+      </c>
+      <c r="J57" t="n">
+        <v>78</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1541555116.870968</v>
+        <v>1732021512.938241</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1750687595207062</v>
+        <v>0.1459756821073602</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03276326568555793</v>
+        <v>0.03223683001984268</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3796097778.181709</v>
+        <v>3621150430.183935</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08375727839951484</v>
+        <v>0.1166638738339239</v>
       </c>
       <c r="G59" t="n">
-        <v>0.034923064544674</v>
+        <v>0.03784344127482929</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>39</v>
+      </c>
+      <c r="J59" t="n">
+        <v>79</v>
+      </c>
+      <c r="K59" t="n">
+        <v>159.8422199230154</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3539262859.761026</v>
+        <v>3288896066.68698</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1755207775838067</v>
+        <v>0.1560183375836597</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03272997021822038</v>
+        <v>0.02075021976778246</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2584,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2602274802.288713</v>
+        <v>3002209183.979883</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1587251535705643</v>
+        <v>0.1544999804469586</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02934096270439534</v>
+        <v>0.02452276309267046</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="n">
+        <v>122.7825964024076</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1865087367.585337</v>
+        <v>1765447388.910721</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1431465435159213</v>
+        <v>0.1231638423054372</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04286018488349139</v>
+        <v>0.04537663711056434</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4380318622.627818</v>
+        <v>4998721208.471982</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06696102726892114</v>
+        <v>0.09399830334031334</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03605010822701653</v>
+        <v>0.03981325164187883</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>39</v>
+      </c>
+      <c r="J63" t="n">
+        <v>80</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3533471372.906926</v>
+        <v>4478189347.371788</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1624004057317039</v>
+        <v>0.1557939522381168</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02685154929794234</v>
+        <v>0.02581379335750491</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>39</v>
+      </c>
+      <c r="J64" t="n">
+        <v>80</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5080828851.96001</v>
+        <v>5305656333.749844</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1329624401548839</v>
+        <v>0.1532440475823089</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02487486160717229</v>
+        <v>0.02595807973039383</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>64</v>
+      </c>
+      <c r="J65" t="n">
+        <v>80</v>
+      </c>
+      <c r="K65" t="n">
+        <v>180.8654917593235</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4182160227.550173</v>
+        <v>4815668449.493626</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1307464077016768</v>
+        <v>0.09985652273692996</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04376322657391568</v>
+        <v>0.04681494347150477</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>39</v>
+      </c>
+      <c r="J66" t="n">
+        <v>80</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2636127542.775775</v>
+        <v>2317503071.423794</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08647721513216633</v>
+        <v>0.06344418389070461</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04048437399830238</v>
+        <v>0.04618957273967988</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5479609519.731604</v>
+        <v>5386074292.952276</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1263323308407312</v>
+        <v>0.1568504768527122</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04631752856690474</v>
+        <v>0.04229308203609795</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>40</v>
+      </c>
+      <c r="J68" t="n">
+        <v>79</v>
+      </c>
+      <c r="K68" t="n">
+        <v>168.9265564447865</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1970662710.610557</v>
+        <v>2423322459.987395</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1690283806566895</v>
+        <v>0.1171555008934588</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05488343008865456</v>
+        <v>0.05099978449336317</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2790210306.587835</v>
+        <v>2712628616.764294</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07682305236233967</v>
+        <v>0.08722441068839812</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04566446464099198</v>
+        <v>0.04368265059576174</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>78</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5025660525.343544</v>
+        <v>4013676682.489634</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1177724775471942</v>
+        <v>0.1504403719098131</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02862637608725088</v>
+        <v>0.02759577795981891</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>66</v>
+      </c>
+      <c r="J71" t="n">
+        <v>80</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2127047322.773943</v>
+        <v>1787207042.071982</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07072586021149393</v>
+        <v>0.06616520518395302</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03799479554545914</v>
+        <v>0.05183416730827291</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2307330248.109882</v>
+        <v>3170354500.360985</v>
       </c>
       <c r="F73" t="n">
-        <v>0.102860886784505</v>
+        <v>0.1111659928478591</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05116938460868446</v>
+        <v>0.0418043144035472</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2435343013.2843</v>
+        <v>2976960398.999795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1852695098881743</v>
+        <v>0.1541691853695794</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03383687521044454</v>
+        <v>0.02378486491250746</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>24</v>
+      </c>
+      <c r="J74" t="n">
+        <v>79</v>
+      </c>
+      <c r="K74" t="n">
+        <v>121.1043812483868</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1569603572.253878</v>
+        <v>2160191592.141012</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1158523241839045</v>
+        <v>0.1434485251314815</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03643483277855475</v>
+        <v>0.02409196982790772</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4327477527.482912</v>
+        <v>5324050154.193911</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09067493048359546</v>
+        <v>0.118577810242347</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03179867855085243</v>
+        <v>0.02875473633004567</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>37</v>
+      </c>
+      <c r="J76" t="n">
+        <v>79</v>
+      </c>
+      <c r="K76" t="n">
+        <v>144.94434580524</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1425045494.285223</v>
+        <v>2067574687.341503</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1768214202780458</v>
+        <v>0.1287343616932237</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02081195124658949</v>
+        <v>0.02023086185126203</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4698536148.687533</v>
+        <v>3976081870.64331</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1057322320904765</v>
+        <v>0.09078643869205351</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04114264603259587</v>
+        <v>0.03806777638577719</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>38</v>
+      </c>
+      <c r="J78" t="n">
+        <v>80</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1364265497.603731</v>
+        <v>1721271146.669414</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1765218277565589</v>
+        <v>0.1631937572164183</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02798864265719993</v>
+        <v>0.03456549836185768</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5248904705.051835</v>
+        <v>3933402174.232521</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08360755195551164</v>
+        <v>0.1021013375232882</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02666233166875711</v>
+        <v>0.03714548768413781</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>38</v>
+      </c>
+      <c r="J80" t="n">
+        <v>80</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4861419227.624572</v>
+        <v>4324782931.372563</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1144695452897052</v>
+        <v>0.1136727100741319</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02492931545854485</v>
+        <v>0.02000791347966601</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>36</v>
+      </c>
+      <c r="J81" t="n">
+        <v>79</v>
+      </c>
+      <c r="K81" t="n">
+        <v>146.0953907864661</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5179711844.956835</v>
+        <v>5180550848.292713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.163745082262416</v>
+        <v>0.1715477082413559</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02477510839140646</v>
+        <v>0.02446220061666565</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>50</v>
+      </c>
+      <c r="J82" t="n">
+        <v>80</v>
+      </c>
+      <c r="K82" t="n">
+        <v>187.302711814543</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1728369489.969383</v>
+        <v>2212813062.77794</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1499115143794212</v>
+        <v>0.1214332949045217</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04282999572372165</v>
+        <v>0.02900179743015671</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1744804739.931782</v>
+        <v>2066791519.402468</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1205995134729515</v>
+        <v>0.1052376929091638</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03956046868389224</v>
+        <v>0.03742572441828118</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3208145965.843196</v>
+        <v>3690378669.314462</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1661951073126262</v>
+        <v>0.1727192280841578</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03481050116072956</v>
+        <v>0.05451579744095447</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2224807554.336818</v>
+        <v>1815859122.284395</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1067634810131386</v>
+        <v>0.1477484051370948</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01973037695129978</v>
+        <v>0.02078928596727021</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1286885800.666206</v>
+        <v>1224227176.627545</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1404733649818127</v>
+        <v>0.1324953720414423</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03472667625843798</v>
+        <v>0.03698295954894362</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3390541406.443823</v>
+        <v>3465884301.08927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1347465113741938</v>
+        <v>0.1612908772039683</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02917872365233684</v>
+        <v>0.03945366212401153</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3578,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3112353202.68797</v>
+        <v>2739324172.694424</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166401616793214</v>
+        <v>0.09653532000249748</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02646920421153975</v>
+        <v>0.04007790854378649</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="n">
+        <v>103.0068743363291</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1352435500.001946</v>
+        <v>2074106830.473011</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1168496269112645</v>
+        <v>0.0870773683141962</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04390837861509111</v>
+        <v>0.05356797962143988</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1305911073.039209</v>
+        <v>1925470163.86382</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1825530389319327</v>
+        <v>0.1287248914530636</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03952267119603486</v>
+        <v>0.05411274363011254</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1813879195.156413</v>
+        <v>1982067703.132905</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1041474683485203</v>
+        <v>0.1047379675220064</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04601498861134231</v>
+        <v>0.04670503196696985</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3912720672.666178</v>
+        <v>3642399868.669226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1005755999572464</v>
+        <v>0.1338154065839411</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05351227686977544</v>
+        <v>0.03922365529443023</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>36</v>
+      </c>
+      <c r="J93" t="n">
+        <v>78</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1591629201.61992</v>
+        <v>1836113473.68283</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1279634362838477</v>
+        <v>0.1110194430546078</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03676304208176721</v>
+        <v>0.02698570389602764</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2637332757.966657</v>
+        <v>3059894288.112127</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1375445953623718</v>
+        <v>0.08873470864703653</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03701613648821889</v>
+        <v>0.0407072330865276</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2083555864.575353</v>
+        <v>2332064901.263304</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09893729727159579</v>
+        <v>0.1202779551364358</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03397036785499976</v>
+        <v>0.03182093511150253</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4447769346.072304</v>
+        <v>4104576107.896012</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1213376194335286</v>
+        <v>0.1355498986135048</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01957496577876942</v>
+        <v>0.01854694890568091</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>38</v>
+      </c>
+      <c r="J97" t="n">
+        <v>80</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3259828635.494822</v>
+        <v>2450541331.7141</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1180226078401196</v>
+        <v>0.08893918402265033</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02849041809697588</v>
+        <v>0.02018501334753897</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>77</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2526308048.249786</v>
+        <v>2434580933.492948</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1295203874006366</v>
+        <v>0.1388800224933202</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0302269011416067</v>
+        <v>0.03488934493716018</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4208644062.855846</v>
+        <v>3652555554.559525</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1393797198779517</v>
+        <v>0.1675648558765463</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0193152369252906</v>
+        <v>0.02070438979447913</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>33</v>
+      </c>
+      <c r="J100" t="n">
+        <v>78</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2488934309.610301</v>
+        <v>3473792327.102134</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1845581931050474</v>
+        <v>0.2029922243640415</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04531536835927018</v>
+        <v>0.04205728922677662</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
